--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -14,9 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>award</t>
+  </si>
+  <si>
+    <t>player_x</t>
+  </si>
+  <si>
+    <t>Alonzo Mourning</t>
+  </si>
+  <si>
+    <t>Alvin Robertson</t>
+  </si>
+  <si>
+    <t>Ben Wallace</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
+  </si>
+  <si>
+    <t>Dennis Rodman</t>
+  </si>
+  <si>
+    <t>Dikembe Mutombo</t>
+  </si>
+  <si>
+    <t>Draymond Green</t>
+  </si>
+  <si>
+    <t>Dwight Howard</t>
+  </si>
+  <si>
+    <t>Gary Payton</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
+  </si>
+  <si>
+    <t>Joakim Noah</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Kevin Garnett</t>
+  </si>
+  <si>
+    <t>Marc Gasol</t>
+  </si>
+  <si>
+    <t>Marcus Camby</t>
+  </si>
+  <si>
+    <t>Marcus Smart</t>
+  </si>
+  <si>
+    <t>Mark Eaton</t>
+  </si>
+  <si>
+    <t>Metta World Peace</t>
+  </si>
+  <si>
+    <t>Michael Cooper</t>
+  </si>
+  <si>
+    <t>Michael Jordan</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Sidney Moncrief</t>
+  </si>
+  <si>
+    <t>Tyson Chandler</t>
   </si>
 </sst>
 </file>
@@ -374,139 +452,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6">
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7">
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+    <row r="25" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
     </row>

--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
+    <t>player_x</t>
+  </si>
+  <si>
     <t>award</t>
-  </si>
-  <si>
-    <t>player_x</t>
   </si>
   <si>
     <t>Alonzo Mourning</t>
@@ -452,217 +452,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>26</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>1</v>
       </c>
     </row>

--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -452,292 +452,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="B2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>4</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="C26">
+      <c r="B26">
         <v>1</v>
       </c>
     </row>

--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -511,7 +511,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>player_x</t>
+    <t>player</t>
   </si>
   <si>
     <t>award</t>

--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>player</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Hakeem Olajuwon</t>
-  </si>
-  <si>
-    <t>Jaren Jackson Jr.</t>
   </si>
   <si>
     <t>Joakim Noah</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -567,7 +564,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -575,7 +572,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -607,7 +604,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -615,7 +612,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -639,7 +636,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -647,7 +644,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -655,14 +652,6 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
         <v>1</v>
       </c>
     </row>

--- a/dpoy_pivot_table.xlsx
+++ b/dpoy_pivot_table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>player</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>Hakeem Olajuwon</t>
+  </si>
+  <si>
+    <t>Jaren Jackson Jr.</t>
   </si>
   <si>
     <t>Joakim Noah</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,7 +567,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -572,7 +575,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -604,7 +607,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -612,7 +615,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -636,7 +639,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -644,7 +647,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -652,6 +655,14 @@
         <v>25</v>
       </c>
       <c r="B25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>1</v>
       </c>
     </row>
